--- a/step_chart.xlsx
+++ b/step_chart.xlsx
@@ -5,15 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Pivot Table_Sheet2_1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,13 +26,45 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- all -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Result</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0\ ;[RED]&quot;($&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -52,6 +88,14 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
@@ -72,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -80,8 +124,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -105,20 +226,96 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Pivot Table Field" xfId="20"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
+    <cellStyle name="Pivot Table Value" xfId="22"/>
+    <cellStyle name="Pivot Table Category" xfId="23"/>
+    <cellStyle name="Pivot Table Title" xfId="24"/>
+    <cellStyle name="Pivot Table Result" xfId="25"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -190,17 +387,6 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0918807425464091"/>
-          <c:y val="0.0840648960995666"/>
-          <c:w val="0.908056753547097"/>
-          <c:h val="0.91576841871319"/>
-        </c:manualLayout>
-      </c:layout>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
@@ -1566,19 +1752,19 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v/>
+                  <c:v>c</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v/>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v/>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v/>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v/>
@@ -1592,6 +1778,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1696,11 +1894,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="83488559"/>
-        <c:axId val="77868759"/>
+        <c:axId val="43493552"/>
+        <c:axId val="36485521"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="83488559"/>
+        <c:axId val="43493552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1930,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77868759"/>
+        <c:crossAx val="36485521"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1740,7 +1938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77868759"/>
+        <c:axId val="36485521"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1779,7 +1977,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83488559"/>
+        <c:crossAx val="43493552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3128,19 +3326,19 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v/>
+                  <c:v>c</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v/>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v/>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v/>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v/>
@@ -3154,6 +3352,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3258,11 +3468,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="81335228"/>
-        <c:axId val="24087429"/>
+        <c:axId val="50950271"/>
+        <c:axId val="11397717"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="81335228"/>
+        <c:axId val="50950271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3294,7 +3504,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24087429"/>
+        <c:crossAx val="11397717"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3302,7 +3512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="24087429"/>
+        <c:axId val="11397717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3341,7 +3551,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81335228"/>
+        <c:crossAx val="50950271"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4690,19 +4900,19 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v/>
+                  <c:v>c</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v/>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v/>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v/>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v/>
@@ -4716,6 +4926,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4820,11 +5042,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="20542438"/>
-        <c:axId val="52027410"/>
+        <c:axId val="49927983"/>
+        <c:axId val="88337331"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="20542438"/>
+        <c:axId val="49927983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4856,7 +5078,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52027410"/>
+        <c:crossAx val="88337331"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4864,7 +5086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="52027410"/>
+        <c:axId val="88337331"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4903,7 +5125,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20542438"/>
+        <c:crossAx val="49927983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4936,15 +5158,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:colOff>270720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>79560</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:colOff>344880</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4952,8 +5174,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="852840" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="1083600" y="1838160"/>
+        <a:ext cx="5763600" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4977,9 +5199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4987,8 +5209,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3266280" y="1788480"/>
-        <a:ext cx="5877720" cy="3827520"/>
+        <a:off x="3271680" y="1788480"/>
+        <a:ext cx="5886000" cy="3827160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5012,9 +5234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>226080</xdr:colOff>
+      <xdr:colOff>225720</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5022,8 +5244,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="880920" y="248400"/>
-        <a:ext cx="5878080" cy="3827520"/>
+        <a:off x="882360" y="248400"/>
+        <a:ext cx="5886360" cy="3827160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5047,9 +5269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5057,8 +5279,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3266280" y="1788480"/>
-        <a:ext cx="5877720" cy="3827520"/>
+        <a:off x="3271680" y="1788480"/>
+        <a:ext cx="5886000" cy="3827160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5071,19 +5293,197 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="4" createdVersion="3">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B19:E23" sheet="Sheet2"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="a" numFmtId="0">
+      <sharedItems count="4">
+        <s v="b"/>
+        <s v="h"/>
+        <s v="j"/>
+        <s v="n"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="b" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="4">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="c" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="4">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="d" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="4">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
+  <location ref="A3:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisPage" compact="0" showAll="0" defaultSubtotal="0" outline="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField axis="axisCol" compact="0" showAll="0" defaultSubtotal="0" outline="0">
+      <items count="4">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B19:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.59"/>
+  </cols>
+  <sheetData>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5091,7 +5491,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5100,14 +5499,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5126,11 +5567,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5150,11 +5591,35 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N23" activeCellId="0" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
